--- a/data/trans_bre/P20D1_R_2023-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20D1_R_2023-Edad-trans_bre.xlsx
@@ -626,7 +626,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>35.96434796254415</v>
+        <v>35.96434796254414</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>1.575080577829165</v>
@@ -640,7 +640,7 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-25.85264116368965</v>
+        <v>-25.61201382979921</v>
       </c>
       <c r="D11" s="6" t="inlineStr"/>
     </row>
@@ -652,7 +652,7 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>73.8107548306769</v>
+        <v>74.44524888372744</v>
       </c>
       <c r="D12" s="6" t="inlineStr"/>
     </row>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>23.56256842185077</v>
+        <v>23.56256842185076</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>1.864101668037679</v>
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-3.810799863934135</v>
+        <v>-3.270842589742754</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.3131332335139832</v>
+        <v>-0.368179642332745</v>
       </c>
     </row>
     <row r="15">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.80421882498614</v>
+        <v>49.58557843207209</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
     </row>
@@ -726,10 +726,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.34146080764706</v>
+        <v>12.86658220704112</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.1535310856970364</v>
+        <v>0.1651963713443412</v>
       </c>
     </row>
     <row r="18">
@@ -740,10 +740,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>67.87968675009681</v>
+        <v>68.88588532434815</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>15.92674422804664</v>
+        <v>18.03250904464821</v>
       </c>
     </row>
     <row r="19">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-6.031154140427788</v>
+        <v>-6.635043654510262</v>
       </c>
       <c r="D20" s="6" t="inlineStr"/>
     </row>
@@ -784,7 +784,7 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>47.55483409914256</v>
+        <v>47.6292942195599</v>
       </c>
       <c r="D21" s="6" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>23.11314408552425</v>
+        <v>23.11314408552424</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.9460423041241611</v>
+        <v>0.9460423041241607</v>
       </c>
     </row>
     <row r="23">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.10344236982361</v>
+        <v>-16.64505454881767</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>-0.3339367899318587</v>
+        <v>-0.4058560379071519</v>
       </c>
     </row>
     <row r="24">
@@ -828,10 +828,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>55.71253294664671</v>
+        <v>53.37716451820167</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>8.891111737138017</v>
+        <v>7.710889641108786</v>
       </c>
     </row>
     <row r="25">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C25" s="5" t="n">
-        <v>38.68640156302595</v>
+        <v>38.68640156302596</v>
       </c>
       <c r="D25" s="6" t="n">
         <v>3.022341424798265</v>
@@ -860,10 +860,10 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>24.79736177811656</v>
+        <v>24.94339985814292</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.9244016906194455</v>
+        <v>1.211181095605292</v>
       </c>
     </row>
     <row r="27">
@@ -874,10 +874,10 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>53.3549673081141</v>
+        <v>53.38702727823329</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>6.847872957269728</v>
+        <v>7.697486171470699</v>
       </c>
     </row>
     <row r="28">
